--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1926,17 +1926,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1945,27 +1945,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-composition</t>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-history-composition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1348,7 +1348,7 @@
     <t>compositionSourcing</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-sources}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-history-sources}
 </t>
   </si>
   <si>
@@ -1535,7 +1535,7 @@
     <t>Composition.section.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-medicationstatement)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-history-medicationstatement)
 </t>
   </si>
   <si>
@@ -1936,7 +1936,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -574,7 +574,7 @@
     <t>Type of a composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -701,7 +701,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -791,7 +791,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -836,7 +836,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1207,7 +1207,7 @@
   </si>
   <si>
     <t>Identifier
-Reference(Composition)</t>
+Reference(Composition|4.0.1)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1298,7 +1298,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1418,7 +1418,7 @@
     <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes|4.0.1</t>
   </si>
   <si>
     <t>Composition.section.code.id</t>
@@ -1436,7 +1436,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
     <t>What order applies to the items in the entry.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1585,7 +1585,7 @@
     <t>If a section is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -1944,7 +1944,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3390,7 +3390,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>172</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>223</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>271</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>282</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>417</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>429</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>456</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>461</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>473</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>490</v>
       </c>
@@ -10910,12 +10910,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO76">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
